--- a/测试_学习提升/网络学习笔记.xlsx
+++ b/测试_学习提升/网络学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8055" windowHeight="8325"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>1.1计算机网络出现的背景</t>
   </si>
@@ -91,6 +91,487 @@
   </si>
   <si>
     <t>当一个数据被分为多个分组时为了标明是原始数据中的哪一部分就有必要将分组序号写入包中，接收端会根据这个序号，将每个分组按照序号重新装配为原始数据</t>
+  </si>
+  <si>
+    <t>Tcp/IP的具体含义：TCP/IP一词泛指 IP/icmp/tcp/udp/ftp/http等协议，有时也称TCP/IP协议为网际协议族</t>
+  </si>
+  <si>
+    <t>TCP/IP与OSI参考模型：</t>
+  </si>
+  <si>
+    <t>物理层</t>
+  </si>
+  <si>
+    <t>物理层:主要定义了系统的电气、机械、过程和功能标准。如：电压、物理数据速率、最大传输速率、物理联接器和其他的类似特性。</t>
+  </si>
+  <si>
+    <r>
+      <t>物理层的主要功能是：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利用传输介质为数据链路层提供物理联接，负责数据流的物理传输工作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>物理层传输的基本单位是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比特流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即0和1，也就是最基本的电信号或光信号，是最基本的物理传输特征</t>
+    </r>
+  </si>
+  <si>
+    <t>数据链路层</t>
+  </si>
+  <si>
+    <r>
+      <t>数据链路层：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是在通信实体间建立数据链路联接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为网络层提供差错控制和流量控制服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>数据链路控制子层主要负责逻辑上识别不同协议类型，并对其进行封装。也就是说数据链路控制子层会接受网络协议数据、分组的数据报并且添加更多的控制信息，从而把这个分组传送到它的目标设备</t>
+  </si>
+  <si>
+    <r>
+      <t>数据链路层由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(介质访问控制子层)和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF136EC2"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(逻辑链路控制子层)组成。介质访问控制子层的主要任务是规定如何在物理线路上传输帧。逻辑链路控制子层对在同一条网络链路上的设备之间的通信进行管理。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>传输的基本单位为：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帧</t>
+    </r>
+  </si>
+  <si>
+    <t>网络层（主要协议：IP、ARP、ICMP）</t>
+  </si>
+  <si>
+    <r>
+      <t>网络层主要为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据在节点之间传输创建逻辑链路，通过路由选择算法为分组选择最佳路径，从而实现拥塞控制、网络互联等功能</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>网络层负责把分组从源网络传输到目标网络的路由选择工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。互联网是由多个网络组成在一起的一个集合，正是借助了网络层的路由路径选择功能，才能使得多个网络之间的联接得以畅通，信息得以共享。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>网络层提供的服务有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面向联接和面向无联接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的服务两种。面向联接的服务是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可靠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的联接服务，是数据在交换之前必须先建立联接，然后传输数据，结束后终止之前建立联接的服务。网络层以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虚电路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务的方式实现面向联接的服务。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>面向无联接的服务是一种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不可靠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的服务，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能防止报文的丢失、重发或失序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。面向无联接的服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优点在于其服务方式灵活方便，并且非常迅速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。网络层以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务的方式实现面向无联接的服务。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>传输的基本单位：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据报</t>
+    </r>
+  </si>
+  <si>
+    <t>传输层(主要协议：TCP、UDP等)</t>
+  </si>
+  <si>
+    <r>
+      <t>传输层主要为用户提供</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>End—to—End(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>端到端</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务，处理数据报错误、数据包次序等传输问题。</t>
+    </r>
+  </si>
+  <si>
+    <t>传输层是计算机通信体系结构中关键一层，它向高层屏蔽了下层数据的通信细节，使用户完全不用考虑物理层、数据链路层和网络层工作的详细情况。</t>
+  </si>
+  <si>
+    <t>传输层使用网络层提供的网络联接服务，依据系统需求可以选择数据传输时使用面向联接的服务或是面向无联接的服务。</t>
+  </si>
+  <si>
+    <t>应用层（主要协议：FTP、TLS/SSL、POP、SSH、SNMP）</t>
+  </si>
+  <si>
+    <r>
+      <t>应用层是OSI模型中的最高层，是直接面向用户的一层，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户的通信内容要由应用进程解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这就要求应用层采用不同的应用协议来解决不同类型的应用要求，并且保证这些不同类型的应用所采用的低层通信协议是一致的。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>应用层中包含了若干独立的用户通用服务协议模块，为网络用户之间的通信提供专用的程序服务。需要注意的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应用层并不是应用程序，而是为应用程序提供服务。</t>
+    </r>
+  </si>
+  <si>
+    <t>协议：</t>
+  </si>
+  <si>
+    <t>IP：</t>
+  </si>
+  <si>
+    <t>TCP：</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>http &amp; https</t>
+  </si>
+  <si>
+    <t>协议如何运作</t>
   </si>
 </sst>
 </file>
@@ -98,12 +579,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +609,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,29 +680,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,98 +764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +771,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF136EC2"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,37 +794,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +932,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +985,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,23 +1045,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,39 +1077,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,165 +1090,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,13 +1327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>524510</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>419735</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -836,8 +1351,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="3486150"/>
+          <a:off x="635" y="3829050"/>
           <a:ext cx="5324475" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="12007215"/>
+          <a:ext cx="5640070" cy="4086860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1140,144 +1697,310 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.375"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" ht="14" customHeight="1" spans="1:1">
-      <c r="A45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="14" customHeight="1" spans="1:1">
+      <c r="A47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>44538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
